--- a/tradept/Excel/Localization/english/D道具列表_Items_Supplies_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_Supplies_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DB9BB-AB01-4F5F-81D8-95AEE254DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1F524-34CB-4E64-99C5-36C23EFF5566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="259">
   <si>
     <t>道具ID_ItemID</t>
   </si>
@@ -235,9 +235,6 @@
     <t>黑岩铁石</t>
   </si>
   <si>
-    <t>Blackrock Ironstone</t>
-  </si>
-  <si>
     <t>非常稀有的材料，据说可以打造巫术武器。</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>玉器</t>
   </si>
   <si>
-    <t>Jadeware</t>
-  </si>
-  <si>
     <t>一些玉器，较为贵重。</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>烤羊肉串</t>
   </si>
   <si>
-    <t>香喷喷的羊肉串，记得多撒点孜然！</t>
-  </si>
-  <si>
     <t>麻布服饰</t>
   </si>
   <si>
@@ -466,364 +457,392 @@
     <t>香味四溢的奶酪。</t>
   </si>
   <si>
-    <t>Suministros</t>
-  </si>
-  <si>
     <t>Trigo</t>
   </si>
   <si>
-    <t>Fruta de cactus</t>
-  </si>
-  <si>
-    <t>Carne seca</t>
-  </si>
-  <si>
-    <t>Brocheta</t>
-  </si>
-  <si>
-    <t>Cordero asado</t>
-  </si>
-  <si>
-    <t>Huevo de avestruz</t>
-  </si>
-  <si>
-    <t>Vino Dakn</t>
-  </si>
-  <si>
-    <t>Piña</t>
-  </si>
-  <si>
-    <t>Pescado ahumado</t>
-  </si>
-  <si>
-    <t>Raciones de marcha</t>
-  </si>
-  <si>
-    <t>Frijoles</t>
-  </si>
-  <si>
-    <t>Cantalupo</t>
-  </si>
-  <si>
-    <t>Repollo</t>
-  </si>
-  <si>
-    <t>Cita de palma</t>
-  </si>
-  <si>
-    <t>Naan asado</t>
-  </si>
-  <si>
-    <t>manzana</t>
-  </si>
-  <si>
-    <t>Bolsa de Pimienta Ember</t>
-  </si>
-  <si>
-    <t>Mineral de ember</t>
-  </si>
-  <si>
-    <t>Polvo de alquimia</t>
-  </si>
-  <si>
     <t>Diamante</t>
   </si>
   <si>
-    <t>Dientes de lobo</t>
-  </si>
-  <si>
-    <t>Piel de lobo</t>
-  </si>
-  <si>
-    <t>Osito</t>
-  </si>
-  <si>
-    <t>Pluma</t>
-  </si>
-  <si>
-    <t>Cola de escorpión</t>
-  </si>
-  <si>
-    <t>Oro de cenizas</t>
-  </si>
-  <si>
-    <t>Cerámica de roca llorando</t>
-  </si>
-  <si>
     <t>Fosfato</t>
   </si>
   <si>
-    <t>Cerámica simple</t>
-  </si>
-  <si>
-    <t>Madera de sol</t>
-  </si>
-  <si>
-    <t>Cubiertos</t>
-  </si>
-  <si>
-    <t>Vajilla de oro</t>
-  </si>
-  <si>
-    <t>Porcelana fina</t>
-  </si>
-  <si>
     <t>Seda</t>
   </si>
   <si>
-    <t>Concha modelada</t>
-  </si>
-  <si>
-    <t>Shell tripunto</t>
-  </si>
-  <si>
-    <t>Flor seca</t>
-  </si>
-  <si>
-    <t>Harina de trigo</t>
-  </si>
-  <si>
-    <t>Lino</t>
-  </si>
-  <si>
-    <t>Tinte ollas</t>
-  </si>
-  <si>
-    <t>bocina</t>
-  </si>
-  <si>
-    <t>Hilo del arco iris</t>
-  </si>
-  <si>
-    <t>Cabello de caballo</t>
-  </si>
-  <si>
-    <t>Placa de armadura</t>
-  </si>
-  <si>
-    <t>Bolsa de sal</t>
-  </si>
-  <si>
-    <t>Desplazarse</t>
-  </si>
-  <si>
-    <t>La carne de res quejas de IFRIT</t>
-  </si>
-  <si>
-    <t>Pollo</t>
-  </si>
-  <si>
-    <t>Huevos</t>
-  </si>
-  <si>
-    <t>Cordero kebab</t>
-  </si>
-  <si>
-    <t>Ropa de cama</t>
-  </si>
-  <si>
-    <t>Papa</t>
-  </si>
-  <si>
     <t>Uvas</t>
   </si>
   <si>
-    <t>Pastel de rosa</t>
-  </si>
-  <si>
-    <t>Haba de soja</t>
-  </si>
-  <si>
-    <t>Carne congelada</t>
-  </si>
-  <si>
-    <t>Queso</t>
-  </si>
-  <si>
-    <t>Productos alimenticios básicos.</t>
-  </si>
-  <si>
-    <t>Una bolsa de trigo seco que se puede almacenar durante mucho tiempo.</t>
-  </si>
-  <si>
-    <t>Un poco de fruta de cactus. Una buena opción cuando no tienes nada más que comer. Tiende a pudrirse.</t>
-  </si>
-  <si>
-    <t>La carne se seca en el viento se puede almacenar durante mucho tiempo.</t>
-  </si>
-  <si>
-    <t>Esta carne a la parrilla es aromática y deliciosa. No se puede almacenar durante mucho tiempo.</t>
-  </si>
-  <si>
-    <t>Esta pierna de cordero asada es crujiente deliciosa. No se puede almacenar durante mucho tiempo.</t>
-  </si>
-  <si>
-    <t>Los huevos de avestruz son muy raros en el desierto. Puede ser almacenado durante mucho tiempo.</t>
-  </si>
-  <si>
-    <t>Algunas ollas de vino hechas por el dakn. Disfruta de una gran reputación en el desierto.</t>
-  </si>
-  <si>
-    <t>¿Cómo se dirigió un piña a abandonar?</t>
-  </si>
-  <si>
-    <t>¡Un pescado ahumado aromático! Es muy popular en los acantilados de Umbra y Twinluna Valley.</t>
-  </si>
-  <si>
-    <t>Suministros utilizados por soldados de las tribus. Proporciona un sustento adecuado y se mantiene durante mucho tiempo.</t>
-  </si>
-  <si>
-    <t>Una bolsa de frijoles. Solo bueno para evitar el hambre.</t>
-  </si>
-  <si>
-    <t>Este producto único del desierto puede crecer con una pequeña cantidad de agua. Cuando lo abraste, sabe dulce y jugoso. Cada viajero quiere probarlo.</t>
-  </si>
-  <si>
-    <t>Esta fue una vez un vegetal común, pero en el desierto escaso del agua, es una opción popular.</t>
-  </si>
-  <si>
-    <t>Una especialidad del gran desierto. La leyenda dice que esta es la comida favorita de Akhal Sultan.</t>
-  </si>
-  <si>
-    <t>Una comida tradicional del desierto. Si desea ir a las direcciones y abrir un negocio de Naan, no lo recomendaría porque cada familia asa su propia Naan. ¡Hay demasiada competencia!</t>
-  </si>
-  <si>
-    <t>Una fruta común. Twinluna Valley está lleno de manzanos.</t>
-  </si>
-  <si>
-    <t>Un lote de pimientos emergentes utilizados para el condimento.</t>
-  </si>
-  <si>
-    <t>Este ore legendario proviene de las minas emector en el valle de Redstone.</t>
-  </si>
-  <si>
-    <t>Algunos materiales medicinales utilizados con frecuencia en Salzaar.</t>
-  </si>
-  <si>
-    <t>La gema más preciosa de las montañas nevadas.</t>
-  </si>
-  <si>
-    <t>Los dientes de un lobo ártico se pueden usar para crear equipo.</t>
-  </si>
-  <si>
-    <t>La piel de un lobo ártico recuperado por cazadores alpinos.</t>
-  </si>
-  <si>
-    <t>La piel de un oso marrón recuperado por cazadores alpinos.</t>
-  </si>
-  <si>
-    <t>No es tu pluma ordinaria.</t>
-  </si>
-  <si>
-    <t>Se dice que puedes crear armas mágicas de este material muy raro.</t>
-  </si>
-  <si>
-    <t>Las colas de escorpión tienen fines medicinales. ¡No te preocupes, ya no es venenoso!</t>
-  </si>
-  <si>
-    <t>Un metal gris similar al oro. Utilizado como sustituto de oro por algunos nobles.</t>
-  </si>
-  <si>
-    <t>Exquisita cerámica de Cotta Town.</t>
-  </si>
-  <si>
-    <t>Se utiliza para elaborar armas excelentes.</t>
-  </si>
-  <si>
-    <t>Un pedazo de cerámica mal elaborada de ningún valor artístico utilizado por los plebeyos.</t>
-  </si>
-  <si>
-    <t>Un buen material para la creación de varitas.</t>
-  </si>
-  <si>
-    <t>Artículos hechos de plata. Caro.</t>
-  </si>
-  <si>
-    <t>Artículos hechos de oro puro. Estos son muy caros.</t>
-  </si>
-  <si>
-    <t>Exquisitos artículos de porcelana. Muy valioso.</t>
-  </si>
-  <si>
-    <t>Seda ligera.</t>
-  </si>
-  <si>
-    <t>Una cáscara común que se encuentra en el río.</t>
-  </si>
-  <si>
-    <t>Otra cáscara común que se encuentra en el río.</t>
-  </si>
-  <si>
-    <t>Las flores frescas son hermosas pero de corta duración; Las flores secas compradas en Fleur hacen mejores recuerdos para aquellos que largos para los recuerdos eternos.</t>
-  </si>
-  <si>
-    <t>Harina hecho a mano de trigo cultivada en los acantilados de Umbra; Ninguna otra región en Salzaar tiene el clima para sostener un cultivo de este tipo. La harina de trigo se disfruta mejor cuando se usan en recetas culinarias.</t>
-  </si>
-  <si>
-    <t>Uno de los tejidos más comunes utilizados en muchos tipos de ropa.</t>
-  </si>
-  <si>
-    <t>Un montón de tintes.</t>
-  </si>
-  <si>
-    <t>Una madera corchina extrañamente formada que se divide como plumas en sus extremos. Utilizado en la creación de diversas artesanías.</t>
-  </si>
-  <si>
-    <t>Los cuernos son un material útil frecuentemente utilizado para elaborar arcos, ballestas, tallas e incluso armaduras. Bullhorns de Nagukka son una variedad excepcional.</t>
-  </si>
-  <si>
-    <t>Artículos hechos de jade. Caro.</t>
-  </si>
-  <si>
-    <t>Un hilo caro exquisitamente elaborado de la seda multicolora.</t>
-  </si>
-  <si>
-    <t>Pelo tomado de la melena de un caballo que se puede usar para crear bastones, ropa, armadura y más. De todas las tribus en Salzaar, Highhair recogido de los rebaños de Akhal es, con mucho, la más alta calidad.</t>
-  </si>
-  <si>
-    <t>Una placa metálica forjada por artesanos calificados que eventualmente se utilizarán para crear armadura. ¡Si bien está prohibido intercambiar cuidados, piadosos y otras piezas de armadura, ninguna ley decía nada sobre el intercambio de materiales!</t>
-  </si>
-  <si>
-    <t>La sal extraída de un lago alto en los pastizales alpinos.</t>
-  </si>
-  <si>
-    <t>Un grupo de académicos de diresprings se lo llevó a copiar clásicos del antiguo imperio. ¡Ahora cualquiera que se cree que un académico tenga acceso a sus enseñanzas!</t>
-  </si>
-  <si>
-    <t>Esta especialidad del Gran Desierto usa el fuego arcano para cocinar. Es extremadamente fragante y tierno.</t>
-  </si>
-  <si>
-    <t>Carne de pollo marinada.</t>
-  </si>
-  <si>
-    <t>Una docena de huevos.</t>
-  </si>
-  <si>
-    <t>Un delicioso kebab de cordero. ¡Asegúrese de espolvorear un pequeño comino en la parte superior!</t>
-  </si>
-  <si>
-    <t>Hecho de lino simple, este es un atuendo común que todos necesitan.</t>
-  </si>
-  <si>
-    <t>A todos les gusta comer papas.</t>
-  </si>
-  <si>
-    <t>Una deliciosa fruta del oeste.</t>
-  </si>
-  <si>
-    <t>¡Este pastel hecho de rosas sabe genial!</t>
-  </si>
-  <si>
-    <t>La mejor opción para hacer raciones militares.</t>
-  </si>
-  <si>
-    <t>Una fruta extraña. Su sabor es ... bueno, algunos no tienen nada más que elogiar mientras otros se niegan a comerlo dos veces.</t>
-  </si>
-  <si>
-    <t>¡Solo puedes encontrar carne congelada en las montañas, a menos que uses magia!</t>
-  </si>
-  <si>
-    <t>Un queso ligeramente picante.</t>
+    <t>需求_Requirement(Origin)</t>
+  </si>
+  <si>
+    <t>需求_Requirement</t>
+  </si>
+  <si>
+    <t>Fornecimentos</t>
+  </si>
+  <si>
+    <t>Itens básicos de alimentação.</t>
+  </si>
+  <si>
+    <t>Fruta de Cacto</t>
+  </si>
+  <si>
+    <t>Um saco de trigo seco que pode ser armazenado por um longo período.</t>
+  </si>
+  <si>
+    <t>Carne Seca</t>
+  </si>
+  <si>
+    <t>Fruta de cacto é uma boa opção quando você não tem mais nada para comer, embora tenda a estragar rapidamente.</t>
+  </si>
+  <si>
+    <t>Kebab</t>
+  </si>
+  <si>
+    <t>Esta carne de boi grelhada é aromática e deliciosa. Não pode ser armazenada por muito tempo.
+Bônus de comida: Todos os membros da equipe recuperam mais 10 de Vida por segundo em batalha. Dura 1 dia.</t>
+  </si>
+  <si>
+    <t>Carne de Cordeiro Assada</t>
+  </si>
+  <si>
+    <t>Esta perna de cordeiro assada é crocante e deliciosa. Não pode ser armazenada por muito tempo.
+Bônus de comida: Todos os membros da equipe recuperam mais 5 de Vida por segundo em batalha. Dura 2 dias.</t>
+  </si>
+  <si>
+    <t>Ovo de Avestruz</t>
+  </si>
+  <si>
+    <t>Ovos de avestruz, bastante raros no deserto, podem ser armazenados por um longo período.
+Bônus de comida: Aumenta a Evasão de todos os membros da equipe em 20% em batalha. Dura 2 dias.</t>
+  </si>
+  <si>
+    <t>Vinho Dakn</t>
+  </si>
+  <si>
+    <t>Algumas garrafas de vinho muito respeitável fabricado pelos Dakn.
+Bônus de comida: Aumenta o Ataque de todos os membros da equipe em 10% em batalha. Dura 2 dias.</t>
+  </si>
+  <si>
+    <t>Pinha</t>
+  </si>
+  <si>
+    <t>Como um pinhão chegou ao deserto?</t>
+  </si>
+  <si>
+    <t>Peixe Defumado</t>
+  </si>
+  <si>
+    <t>Um peixe defumado aromático! Bastante popular nos Penhascos Umbra e no Vale Twinluna.
+Bônus de comida: Aumenta o Ataque de todos os membros da equipe em 10% em batalha. Dura 1 dia.</t>
+  </si>
+  <si>
+    <t>Rações de Marcha</t>
+  </si>
+  <si>
+    <t>Suprimentos usados pelos soldados das tribos. Fornecem sustento adequado e têm longa duração.</t>
+  </si>
+  <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>Um saco de feijões. Serve apenas para afastar a fome.</t>
+  </si>
+  <si>
+    <t>Melão Cantalupo</t>
+  </si>
+  <si>
+    <t>Uma fruta doce e suculenta única no deserto. Cresce bem mesmo com a menor quantidade de água.
+Bônus de comida: Todos os membros da equipe recuperam mais 5 de Mana por segundo em batalha. Dura 2 dias.</t>
+  </si>
+  <si>
+    <t>Repolho</t>
+  </si>
+  <si>
+    <t>Nada mais do que um vegetal comum, tornou-se uma escolha culinária popular no deserto escasso de água.
+Bônus de comida: Todos os membros da equipe recuperam mais 5 de Vida por segundo em batalha. Dura meio dia.</t>
+  </si>
+  <si>
+    <t>Tâmara de Palmeira</t>
+  </si>
+  <si>
+    <t>Uma especialidade do grande deserto. Dizem que esse é o alimento favorito do Akhal Sultan.
+Bônus de comida: Aumenta a Taxa de Crítico de todos os membros da equipe em 15% em batalha. Dura 1 dia.</t>
+  </si>
+  <si>
+    <t>Pão Naan Assado</t>
+  </si>
+  <si>
+    <t>Um alimento tradicional do deserto. Pensando em abrir uma barraca de pães na Diresprings? Pense de novo! Cada família assa o seu.
+Bônus de comida: Aumenta a Defesa de todos os membros da equipe em 5 em batalha. Dura 1 dia.</t>
+  </si>
+  <si>
+    <t>Maçã</t>
+  </si>
+  <si>
+    <t>Uma fruta comum. O Vale Twinluna está cheio de macieiras.
+Bônus de comida: Todos os membros da equipe recuperam mais 5 de Vida por segundo em batalha. Dura 1 dia.</t>
+  </si>
+  <si>
+    <t>Saco de Pimenta Ember</t>
+  </si>
+  <si>
+    <t>Um lote de pimentas Ember usadas para temperar.</t>
+  </si>
+  <si>
+    <t>Minério Ember</t>
+  </si>
+  <si>
+    <t>Este minério lendário vem das Minas Ember no Vale da Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Raiz de Alquimia</t>
+  </si>
+  <si>
+    <t>Uma raiz medicinal encontrada em misturas de ervas em Salzaar.</t>
+  </si>
+  <si>
+    <t>A gema mais preciosa das montanhas nevadas.</t>
+  </si>
+  <si>
+    <t>Dentes de Lobo</t>
+  </si>
+  <si>
+    <t>Dentes de um Lobo Ártico que podem ser usados para fabricar equipamentos.</t>
+  </si>
+  <si>
+    <t>Pele de Lobo</t>
+  </si>
+  <si>
+    <t>A pele de um lobo recuperada por caçadores alpinos.</t>
+  </si>
+  <si>
+    <t>Pele de Urso</t>
+  </si>
+  <si>
+    <t>A pele de um urso marrom recuperada por caçadores alpinos.</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>Mais do que uma pena comum.</t>
+  </si>
+  <si>
+    <t>Pedra de Ferro Rochoso</t>
+  </si>
+  <si>
+    <t>Dizem que esse material precioso pode ser usado para fabricar armas arcanas.</t>
+  </si>
+  <si>
+    <t>Cauda de Escorpião</t>
+  </si>
+  <si>
+    <t>As caudas de escorpião são valorizadas por seus propósitos medicinais depois de drenadas de suas toxinas.</t>
+  </si>
+  <si>
+    <t>Ouro Cinzento de Cinzas</t>
+  </si>
+  <si>
+    <t>Um metal cinza cintilante frequentemente usado como substituto do ouro por aqueles fora da sociedade nobre.</t>
+  </si>
+  <si>
+    <t>Cerâmica de Pedra Que Chora</t>
+  </si>
+  <si>
+    <t>Artefatos de cerâmica requintados de Cotta Town.</t>
+  </si>
+  <si>
+    <t>Usado para fabricar armas excelentes.</t>
+  </si>
+  <si>
+    <t>Cerâmica Simples</t>
+  </si>
+  <si>
+    <t>Uma peça de cerâmica malfeita sem valor artístico usada por pessoas comuns.</t>
+  </si>
+  <si>
+    <t>Madeira Solar</t>
+  </si>
+  <si>
+    <t>Um material sólido para fabricar varinhas.</t>
+  </si>
+  <si>
+    <t>Prataria</t>
+  </si>
+  <si>
+    <t>Alguns talheres bastante caros.</t>
+  </si>
+  <si>
+    <t>Ourivesaria</t>
+  </si>
+  <si>
+    <t>Alguns itens luxuosos feitos de ouro puro.</t>
+  </si>
+  <si>
+    <t>Porcelana Fina</t>
+  </si>
+  <si>
+    <t>Objetos de porcelana requintados que alcançam um alto preço.</t>
+  </si>
+  <si>
+    <t>Seda leve.</t>
+  </si>
+  <si>
+    <t>Concha Estampada</t>
+  </si>
+  <si>
+    <t>Uma concha comum encontrada ao longo do Grande Rio.</t>
+  </si>
+  <si>
+    <t>Concha Triponta</t>
+  </si>
+  <si>
+    <t>Outra concha comum encontrada ao longo do Grande Rio.</t>
+  </si>
+  <si>
+    <t>花束</t>
+  </si>
+  <si>
+    <t>Flor Seca</t>
+  </si>
+  <si>
+    <t>Flores frescas são bonitas, mas de curta duração; flores secas compradas em Fleur são lembranças que durarão para sempre.</t>
+  </si>
+  <si>
+    <t>Farinha de Trigo</t>
+  </si>
+  <si>
+    <t>Farinha feita de trigo cultivado nos Penhascos Umbra; nenhuma outra região em Salzaar tem o clima para sustentar tal cultura. A farinha de trigo é melhor apreciada quando usada em receitas culinárias.</t>
+  </si>
+  <si>
+    <t>Linho</t>
+  </si>
+  <si>
+    <t>Um dos tecidos mais comuns usados em roupas.</t>
+  </si>
+  <si>
+    <t>Potinhos de Tinta</t>
+  </si>
+  <si>
+    <t>Um punhado de corantes.</t>
+  </si>
+  <si>
+    <t>Um cortiço estranhamente moldado que se divide como penas em suas extremidades. Usado na criação de vários artesanatos.</t>
+  </si>
+  <si>
+    <t>Chifre</t>
+  </si>
+  <si>
+    <t>Chifres são um material útil frequentemente usado para fabricar arcos, bestas, entalhes e até mesmo armaduras. Os chifres de touro de Nagukka são uma variedade excepcional.</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Itens feitos de jade são luxuosos e caros.</t>
+  </si>
+  <si>
+    <t>Fio Arco-Íris</t>
+  </si>
+  <si>
+    <t>Um fio caro habilmente fabricado a partir de seda multicolorida.</t>
+  </si>
+  <si>
+    <t>Crina de Cavalo</t>
+  </si>
+  <si>
+    <t>Cabelos retirados da crina de um cavalo que podem ser usados para fabricar cajados, roupas, armaduras e muito mais. Os cabelos de cavalo dos rebanhos de Akhal são da mais alta qualidade.</t>
+  </si>
+  <si>
+    <t>Placa de Armadura</t>
+  </si>
+  <si>
+    <t>Uma placa de metal forjada por artesãos habilidosos que eventualmente será usada para fabricar armaduras. Embora seja proibido comercializar couraças, coxins e outras peças de armadura acabadas, não há leis sobre a troca de materiais!</t>
+  </si>
+  <si>
+    <t>Saco de Sal</t>
+  </si>
+  <si>
+    <t>Sal extraído de um lago nas altas pastagens alpinas.</t>
+  </si>
+  <si>
+    <t>Pergaminho</t>
+  </si>
+  <si>
+    <t>Um grupo de estudiosos de Diresprings se encarregou de copiar clássicos do Velho Império. Qualquer aventureiro que se considere um acadêmico pode estudar seus ensinamentos.</t>
+  </si>
+  <si>
+    <t>Carne de Ifrit Grelhada</t>
+  </si>
+  <si>
+    <t>Esta especialidade do grande deserto requer fogo arcano para cozinhar. É extremamente perfumada e macia.</t>
+  </si>
+  <si>
+    <t>Frango</t>
+  </si>
+  <si>
+    <t>Carne de frango marinada.</t>
+  </si>
+  <si>
+    <t>Ovos</t>
+  </si>
+  <si>
+    <t>Uma dúzia de ovos.</t>
+  </si>
+  <si>
+    <t>羊肉串</t>
+  </si>
+  <si>
+    <t>Kebab de Cordeiro</t>
+  </si>
+  <si>
+    <t>生羊肉，但是香喷喷的撒满了孜然！需要烤熟了才能吃。</t>
+  </si>
+  <si>
+    <t>Um delicioso kebab de cordeiro. Melhor servido com uma pitada de cominho e pimenta.</t>
+  </si>
+  <si>
+    <t>Roupas de Linho</t>
+  </si>
+  <si>
+    <t>Um traje comum feito de linho simples.</t>
+  </si>
+  <si>
+    <t>Batata</t>
+  </si>
+  <si>
+    <t>Cozinhe-os, amasse-os, coloque-os em um ensopado.</t>
+  </si>
+  <si>
+    <t>Uma deliciosa fruta do oeste.</t>
+  </si>
+  <si>
+    <t>Bolo de Rosa</t>
+  </si>
+  <si>
+    <t>Bolo divinamente delicioso feito com a delicada essência das rosas.</t>
+  </si>
+  <si>
+    <t>Soja</t>
+  </si>
+  <si>
+    <t>Uma seleção eficiente para rações militares.</t>
+  </si>
+  <si>
+    <t>Uma fruta estranha. Seu sabor pungente recebe tanto elogios quanto críticas.</t>
+  </si>
+  <si>
+    <t>Carne de Vaca Congelada</t>
+  </si>
+  <si>
+    <t>A carne bovina congela naturalmente em regiões alpinas - o único outro método requer arcana de gelo.</t>
+  </si>
+  <si>
+    <t>Queijo</t>
+  </si>
+  <si>
+    <t>Um queijo ligeiramente pungente.</t>
   </si>
 </sst>
 </file>
@@ -932,43 +951,46 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1245,10 +1267,10 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="A1:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="5" width="8.875" style="1"/>
   </cols>
@@ -1264,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1290,13 +1312,12 @@
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1">
@@ -1307,13 +1328,15 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>195</v>
+      <c r="G3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="96" customHeight="1">
@@ -1324,13 +1347,15 @@
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>196</v>
+      <c r="G4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1">
@@ -1341,13 +1366,15 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>197</v>
+      <c r="G5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="192" customHeight="1">
@@ -1358,13 +1385,15 @@
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>198</v>
+      <c r="G6" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="180" customHeight="1">
@@ -1375,13 +1404,15 @@
         <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>199</v>
+      <c r="G7" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="180" customHeight="1">
@@ -1392,13 +1423,15 @@
         <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>200</v>
+      <c r="G8" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="156" customHeight="1">
@@ -1409,13 +1442,15 @@
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>201</v>
+      <c r="G9" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="48" customHeight="1">
@@ -1426,13 +1461,15 @@
         <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>202</v>
+      <c r="G10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="168" customHeight="1">
@@ -1443,13 +1480,15 @@
         <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>203</v>
+      <c r="G11" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="96" customHeight="1">
@@ -1460,13 +1499,15 @@
         <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>204</v>
+      <c r="G12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1">
@@ -1477,13 +1518,15 @@
         <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>205</v>
+      <c r="G13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="228" customHeight="1">
@@ -1494,13 +1537,15 @@
         <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>206</v>
+      <c r="G14" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="204" customHeight="1">
@@ -1511,13 +1556,15 @@
         <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>207</v>
+      <c r="G15" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="192" customHeight="1">
@@ -1528,13 +1575,15 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>208</v>
+      <c r="G16" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="276" customHeight="1">
@@ -1545,13 +1594,15 @@
         <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>209</v>
+      <c r="G17" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="180" customHeight="1">
@@ -1562,13 +1613,15 @@
         <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>210</v>
+      <c r="G18" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36" customHeight="1">
@@ -1579,19 +1632,15 @@
         <v>42</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
         <v>5</v>
@@ -1608,19 +1657,15 @@
         <v>44</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="H20" t="s">
         <v>5</v>
@@ -1637,19 +1682,15 @@
         <v>46</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
         <v>5</v>
@@ -1666,19 +1707,15 @@
         <v>48</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
@@ -1695,19 +1732,15 @@
         <v>50</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -1724,19 +1757,15 @@
         <v>52</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
@@ -1753,19 +1782,15 @@
         <v>54</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
@@ -1782,19 +1807,15 @@
         <v>56</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
@@ -1811,19 +1832,15 @@
         <v>58</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
@@ -1834,25 +1851,21 @@
     </row>
     <row r="28" spans="1:9" ht="60" customHeight="1">
       <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
@@ -1863,25 +1876,21 @@
     </row>
     <row r="29" spans="1:9" ht="96" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
@@ -1892,25 +1901,21 @@
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1">
       <c r="A30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -1921,25 +1926,21 @@
     </row>
     <row r="31" spans="1:9" ht="36" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -1950,25 +1951,21 @@
     </row>
     <row r="32" spans="1:9" ht="84" customHeight="1">
       <c r="A32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
@@ -1979,25 +1976,21 @@
     </row>
     <row r="33" spans="1:9" ht="48" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
@@ -2008,25 +2001,21 @@
     </row>
     <row r="34" spans="1:9" ht="36" customHeight="1">
       <c r="A34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
@@ -2037,25 +2026,21 @@
     </row>
     <row r="35" spans="1:9" ht="60" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F35" t="s">
-        <v>5</v>
-      </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
@@ -2066,25 +2051,21 @@
     </row>
     <row r="36" spans="1:9" ht="48" customHeight="1">
       <c r="A36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" t="s">
-        <v>5</v>
-      </c>
       <c r="G36" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
@@ -2095,25 +2076,21 @@
     </row>
     <row r="37" spans="1:9" ht="24" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" t="s">
-        <v>5</v>
-      </c>
       <c r="G37" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
@@ -2124,25 +2101,21 @@
     </row>
     <row r="38" spans="1:9" ht="36" customHeight="1">
       <c r="A38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -2153,25 +2126,21 @@
     </row>
     <row r="39" spans="1:9" ht="36" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
@@ -2182,25 +2151,21 @@
     </row>
     <row r="40" spans="1:9" ht="132" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9"/>
+      <c r="F40" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" t="s">
-        <v>5</v>
-      </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
@@ -2211,25 +2176,21 @@
     </row>
     <row r="41" spans="1:9" ht="144" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9"/>
+      <c r="F41" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F41" t="s">
-        <v>5</v>
-      </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="H41" t="s">
         <v>5</v>
@@ -2240,25 +2201,21 @@
     </row>
     <row r="42" spans="1:9" ht="48" customHeight="1">
       <c r="A42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9"/>
+      <c r="F42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
@@ -2269,25 +2226,21 @@
     </row>
     <row r="43" spans="1:9" ht="24" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="9"/>
+      <c r="F43" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
-      </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
@@ -2298,25 +2251,21 @@
     </row>
     <row r="44" spans="1:9" ht="108" customHeight="1">
       <c r="A44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="9"/>
+      <c r="F44" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" t="s">
-        <v>5</v>
-      </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
@@ -2327,25 +2276,21 @@
     </row>
     <row r="45" spans="1:9" ht="144" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
       <c r="G45" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
@@ -2356,25 +2301,21 @@
     </row>
     <row r="46" spans="1:9" ht="36" customHeight="1">
       <c r="A46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9"/>
+      <c r="F46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" t="s">
-        <v>5</v>
-      </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
@@ -2385,25 +2326,21 @@
     </row>
     <row r="47" spans="1:9" ht="96" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>239</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9"/>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -2414,25 +2351,21 @@
     </row>
     <row r="48" spans="1:9" ht="168" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>240</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="H48" t="s">
         <v>5</v>
@@ -2443,25 +2376,21 @@
     </row>
     <row r="49" spans="1:9" ht="156" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>241</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -2472,25 +2401,21 @@
     </row>
     <row r="50" spans="1:9" ht="48" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>242</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9"/>
       <c r="F50" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="H50" t="s">
         <v>5</v>
@@ -2501,25 +2426,21 @@
     </row>
     <row r="51" spans="1:9" ht="96" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>243</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9"/>
       <c r="F51" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
@@ -2530,25 +2451,21 @@
     </row>
     <row r="52" spans="1:9" ht="84" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>244</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
       <c r="F52" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="H52" t="s">
         <v>5</v>
@@ -2559,25 +2476,21 @@
     </row>
     <row r="53" spans="1:9" ht="24" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>245</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
       <c r="F53" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="G53" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
         <v>5</v>
@@ -2588,25 +2501,21 @@
     </row>
     <row r="54" spans="1:9" ht="24" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9"/>
       <c r="F54" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="H54" t="s">
         <v>5</v>
@@ -2617,25 +2526,21 @@
     </row>
     <row r="55" spans="1:9" ht="48" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>247</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9"/>
       <c r="F55" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
         <v>5</v>
@@ -2646,25 +2551,21 @@
     </row>
     <row r="56" spans="1:9" ht="60" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>248</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9"/>
       <c r="F56" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
@@ -2675,25 +2576,21 @@
     </row>
     <row r="57" spans="1:9" ht="36" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>249</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9"/>
       <c r="F57" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="G57" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="H57" t="s">
         <v>5</v>
@@ -2704,25 +2601,21 @@
     </row>
     <row r="58" spans="1:9" ht="24" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>250</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9"/>
       <c r="F58" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="H58" t="s">
         <v>5</v>
@@ -2733,25 +2626,21 @@
     </row>
     <row r="59" spans="1:9" ht="60" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9"/>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
         <v>251</v>
-      </c>
-      <c r="F59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" t="s">
-        <v>5</v>
       </c>
       <c r="H59" t="s">
         <v>5</v>
@@ -2762,25 +2651,21 @@
     </row>
     <row r="60" spans="1:9" ht="48" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="9" t="s">
         <v>252</v>
       </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9"/>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="G60" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="H60" t="s">
         <v>5</v>
@@ -2791,25 +2676,21 @@
     </row>
     <row r="61" spans="1:9" ht="108" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>253</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9"/>
       <c r="F61" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="H61" t="s">
         <v>5</v>
@@ -2820,25 +2701,21 @@
     </row>
     <row r="62" spans="1:9" ht="72" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>254</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9"/>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="G62" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="H62" t="s">
         <v>5</v>
@@ -2849,25 +2726,21 @@
     </row>
     <row r="63" spans="1:9" ht="24" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
       <c r="F63" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="G63" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>

--- a/tradept/Excel/Localization/english/D道具列表_Items_Supplies_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D道具列表_Items_Supplies_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1F524-34CB-4E64-99C5-36C23EFF5566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6037B32A-FF67-43E3-838E-537422E53E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,13 +1266,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G63"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="8.875" style="1"/>
+    <col min="1" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="241.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1">
